--- a/BeverageManagement/Content/new.xlsx
+++ b/BeverageManagement/Content/new.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>dhoor</t>
+    <t>Hoina keno?? :'(</t>
   </si>
 </sst>
 </file>
@@ -357,14 +357,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/BeverageManagement/Content/new.xlsx
+++ b/BeverageManagement/Content/new.xlsx
@@ -16,17 +16,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Hoina keno?? :'(</t>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total Paid</t>
+  </si>
+  <si>
+    <t>Rashik1</t>
+  </si>
+  <si>
+    <t>Kazi Afiq3</t>
+  </si>
+  <si>
+    <t>new7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,21 +382,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42536</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42536</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42536</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>42536</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/BeverageManagement/Content/new.xlsx
+++ b/BeverageManagement/Content/new.xlsx
@@ -410,7 +410,7 @@
         <v>42536</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,13 +419,17 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2">
         <v>42536</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,13 +438,17 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="2">
         <v>42536</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,126 +457,70 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>42536</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>42536</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>42536</v>
-      </c>
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BeverageManagement/Content/new.xlsx
+++ b/BeverageManagement/Content/new.xlsx
@@ -410,7 +410,7 @@
         <v>42536</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,36 +419,32 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>42536</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>42536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>42536</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>42536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>42536</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B8" s="2">
         <v>42536</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,13 +456,25 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42536</v>
+      </c>
+      <c r="C11">
+        <v>240</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>42536</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>42536</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
